--- a/Data/Attachments/Riksbanken_forecast_employment.xlsx
+++ b/Data/Attachments/Riksbanken_forecast_employment.xlsx
@@ -2641,6 +2641,7 @@
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{9641a79b-5684-4ff8-89b0-3b715ae642f9}" enabled="1" method="Privileged" siteId="{adee44b2-91fc-40f1-abdd-9cc29351b5fd}" contentBits="0" removed="0"/>
+  <clbl:label id="{1e586649-7317-42fb-8949-66923d34ba7e}" enabled="0" method="" siteId="{1e586649-7317-42fb-8949-66923d34ba7e}" removed="1"/>
+  <clbl:label id="{9641a79b-5684-4ff8-89b0-3b715ae642f9}" enabled="1" method="Privileged" siteId="{adee44b2-91fc-40f1-abdd-9cc29351b5fd}" removed="0"/>
 </clbl:labelList>
 </file>